--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H2">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I2">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J2">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>82.43847474583599</v>
+        <v>509.5345628090325</v>
       </c>
       <c r="R2">
-        <v>329.753898983344</v>
+        <v>2038.13825123613</v>
       </c>
       <c r="S2">
-        <v>0.004270307079759083</v>
+        <v>0.01865799053978313</v>
       </c>
       <c r="T2">
-        <v>0.00240781045406287</v>
+        <v>0.01097798179936297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H3">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I3">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J3">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>121.5406553236013</v>
+        <v>829.9637125976509</v>
       </c>
       <c r="R3">
-        <v>729.2439319416079</v>
+        <v>4979.782275585906</v>
       </c>
       <c r="S3">
-        <v>0.006295797229474444</v>
+        <v>0.03039137328121551</v>
       </c>
       <c r="T3">
-        <v>0.005324823052295756</v>
+        <v>0.02682249800915924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H4">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I4">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J4">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>57.47374223016733</v>
+        <v>454.643891567656</v>
       </c>
       <c r="R4">
-        <v>344.842453381004</v>
+        <v>2727.863349405936</v>
       </c>
       <c r="S4">
-        <v>0.00297713572579324</v>
+        <v>0.01664801967716318</v>
       </c>
       <c r="T4">
-        <v>0.002517984675284792</v>
+        <v>0.01469303379334801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H5">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I5">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J5">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>19.321735005743</v>
+        <v>194.6936170565558</v>
       </c>
       <c r="R5">
-        <v>77.286940022972</v>
+        <v>778.774468226223</v>
       </c>
       <c r="S5">
-        <v>0.001000864487639261</v>
+        <v>0.007129235051634424</v>
       </c>
       <c r="T5">
-        <v>0.000564336927398216</v>
+        <v>0.004194696769373158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H6">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I6">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J6">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>44.55037701550867</v>
+        <v>309.433748279603</v>
       </c>
       <c r="R6">
-        <v>267.302262093052</v>
+        <v>1856.602489677618</v>
       </c>
       <c r="S6">
-        <v>0.002307706334473059</v>
+        <v>0.01133075628130505</v>
       </c>
       <c r="T6">
-        <v>0.001951798547482264</v>
+        <v>0.01000017949124469</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H7">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I7">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J7">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>42.29675860220066</v>
+        <v>342.6406207765816</v>
       </c>
       <c r="R7">
-        <v>253.780551613204</v>
+        <v>2055.843724659489</v>
       </c>
       <c r="S7">
-        <v>0.002190969062281949</v>
+        <v>0.01254671601814555</v>
       </c>
       <c r="T7">
-        <v>0.001853065171014033</v>
+        <v>0.01107334842371873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>130.136079</v>
       </c>
       <c r="I8">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J8">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>2058.932444326406</v>
+        <v>1863.580968406285</v>
       </c>
       <c r="R8">
-        <v>12353.59466595844</v>
+        <v>11181.48581043771</v>
       </c>
       <c r="S8">
-        <v>0.1066525529597675</v>
+        <v>0.06824007362121967</v>
       </c>
       <c r="T8">
-        <v>0.09020398082829788</v>
+        <v>0.0602266051590821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>130.136079</v>
       </c>
       <c r="I9">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J9">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>3035.524363132344</v>
@@ -1013,10 +1013,10 @@
         <v>27319.7192681911</v>
       </c>
       <c r="S9">
-        <v>0.1572399443176256</v>
+        <v>0.1111539608586499</v>
       </c>
       <c r="T9">
-        <v>0.1994842391820695</v>
+        <v>0.1471516373867225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>130.136079</v>
       </c>
       <c r="I10">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J10">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>1435.428699273956</v>
+        <v>1662.822830028901</v>
       </c>
       <c r="R10">
-        <v>12918.8582934656</v>
+        <v>14965.40547026011</v>
       </c>
       <c r="S10">
-        <v>0.07435510368062166</v>
+        <v>0.06088876966652886</v>
       </c>
       <c r="T10">
-        <v>0.09433144581297119</v>
+        <v>0.08060785315861706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>130.136079</v>
       </c>
       <c r="I11">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J11">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>482.5677234647156</v>
+        <v>712.0759726612736</v>
       </c>
       <c r="R11">
-        <v>2895.406340788293</v>
+        <v>4272.455835967641</v>
       </c>
       <c r="S11">
-        <v>0.02499697346812795</v>
+        <v>0.02607459381808475</v>
       </c>
       <c r="T11">
-        <v>0.0211417959805901</v>
+        <v>0.02301264027471554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>130.136079</v>
       </c>
       <c r="I12">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J12">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>1112.66270909309</v>
+        <v>1131.728613457401</v>
       </c>
       <c r="R12">
-        <v>10013.96438183781</v>
+        <v>10185.55752111661</v>
       </c>
       <c r="S12">
-        <v>0.05763584853641584</v>
+        <v>0.0414413139063228</v>
       </c>
       <c r="T12">
-        <v>0.07312037310109322</v>
+        <v>0.05486225726609362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>130.136079</v>
       </c>
       <c r="I13">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J13">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>1056.377727079572</v>
+        <v>1253.180032306207</v>
       </c>
       <c r="R13">
-        <v>9507.39954371615</v>
+        <v>11278.62029075586</v>
       </c>
       <c r="S13">
-        <v>0.05472029050459309</v>
+        <v>0.04588858714217893</v>
       </c>
       <c r="T13">
-        <v>0.06942151732819571</v>
+        <v>0.06074979859621844</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H14">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I14">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J14">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>213.3214000591593</v>
+        <v>160.3851631452717</v>
       </c>
       <c r="R14">
-        <v>1279.928400354956</v>
+        <v>962.3109788716301</v>
       </c>
       <c r="S14">
-        <v>0.01105003322472024</v>
+        <v>0.005872937922383086</v>
       </c>
       <c r="T14">
-        <v>0.009345833339129962</v>
+        <v>0.005183275670810218</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H15">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I15">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J15">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>314.5039114039158</v>
+        <v>261.2459981434451</v>
       </c>
       <c r="R15">
-        <v>2830.535202635242</v>
+        <v>2351.213983291006</v>
       </c>
       <c r="S15">
-        <v>0.01629128005607481</v>
+        <v>0.009566231062020102</v>
       </c>
       <c r="T15">
-        <v>0.02066811726111645</v>
+        <v>0.01266429512292488</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H16">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I16">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J16">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>148.7215671684635</v>
+        <v>143.1073376457262</v>
       </c>
       <c r="R16">
-        <v>1338.494104516171</v>
+        <v>1287.966038811536</v>
       </c>
       <c r="S16">
-        <v>0.007703766513759209</v>
+        <v>0.005240263461711881</v>
       </c>
       <c r="T16">
-        <v>0.009773470783793049</v>
+        <v>0.006937344767311639</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H17">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I17">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J17">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>49.99776591821718</v>
+        <v>61.28331582221217</v>
       </c>
       <c r="R17">
-        <v>299.986595509303</v>
+        <v>367.6998949332731</v>
       </c>
       <c r="S17">
-        <v>0.002589880688973864</v>
+        <v>0.002244054889139911</v>
       </c>
       <c r="T17">
-        <v>0.002190454344809775</v>
+        <v>0.001980534319375513</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H18">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I18">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J18">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>115.2805025494692</v>
+        <v>97.39983471754645</v>
       </c>
       <c r="R18">
-        <v>1037.524522945223</v>
+        <v>876.5985124579181</v>
       </c>
       <c r="S18">
-        <v>0.00597152176472126</v>
+        <v>0.003566559223613491</v>
       </c>
       <c r="T18">
-        <v>0.00757583883131063</v>
+        <v>0.004721604390318056</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H19">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I19">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J19">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>109.4489410533579</v>
+        <v>107.8522947697377</v>
       </c>
       <c r="R19">
-        <v>985.0404694802208</v>
+        <v>970.6706529276391</v>
       </c>
       <c r="S19">
-        <v>0.005669447297433124</v>
+        <v>0.003949304409133588</v>
       </c>
       <c r="T19">
-        <v>0.007192608631472994</v>
+        <v>0.005228303209830113</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H20">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I20">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J20">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>1627.287912477579</v>
+        <v>2192.467531723843</v>
       </c>
       <c r="R20">
-        <v>6509.151649910317</v>
+        <v>8769.87012689537</v>
       </c>
       <c r="S20">
-        <v>0.08429339716538586</v>
+        <v>0.08028314750655413</v>
       </c>
       <c r="T20">
-        <v>0.04752878870592606</v>
+        <v>0.04723696961059602</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H21">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I21">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J21">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>2399.142389430127</v>
+        <v>3571.236624945732</v>
       </c>
       <c r="R21">
-        <v>14394.85433658076</v>
+        <v>21427.41974967439</v>
       </c>
       <c r="S21">
-        <v>0.124275403717984</v>
+        <v>0.1307705188755516</v>
       </c>
       <c r="T21">
-        <v>0.1051089338539773</v>
+        <v>0.1154140666741176</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H22">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I22">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J22">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>1134.498500904489</v>
+        <v>1956.279403821811</v>
       </c>
       <c r="R22">
-        <v>6806.991005426932</v>
+        <v>11737.67642293086</v>
       </c>
       <c r="S22">
-        <v>0.05876694098629246</v>
+        <v>0.07163447835306079</v>
       </c>
       <c r="T22">
-        <v>0.04970356424627676</v>
+        <v>0.06322240312186661</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H23">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I23">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J23">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>381.3998975584959</v>
+        <v>837.7438258106067</v>
       </c>
       <c r="R23">
-        <v>1525.599590233983</v>
+        <v>3350.975303242427</v>
       </c>
       <c r="S23">
-        <v>0.01975648734143641</v>
+        <v>0.03067626323632573</v>
       </c>
       <c r="T23">
-        <v>0.0111396852422508</v>
+        <v>0.01804928878931491</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H24">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I24">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J24">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>879.3987302308508</v>
+        <v>1331.45716864138</v>
       </c>
       <c r="R24">
-        <v>5276.392381385104</v>
+        <v>7988.743011848283</v>
       </c>
       <c r="S24">
-        <v>0.04555279115987808</v>
+        <v>0.0487549168788142</v>
       </c>
       <c r="T24">
-        <v>0.03852737685530278</v>
+        <v>0.04302960082843663</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H25">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I25">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J25">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>834.9136034181636</v>
+        <v>1474.342450806244</v>
       </c>
       <c r="R25">
-        <v>5009.481620508981</v>
+        <v>8846.054704837461</v>
       </c>
       <c r="S25">
-        <v>0.04324846478123175</v>
+        <v>0.05398704917659009</v>
       </c>
       <c r="T25">
-        <v>0.0365784369873564</v>
+        <v>0.04764732102298582</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H26">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I26">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J26">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>201.357461855594</v>
+        <v>347.2434104112151</v>
       </c>
       <c r="R26">
-        <v>1208.144771133564</v>
+        <v>2083.46046246729</v>
       </c>
       <c r="S26">
-        <v>0.01043030208376938</v>
+        <v>0.01271525964938846</v>
       </c>
       <c r="T26">
-        <v>0.008821680710752487</v>
+        <v>0.01122209988590631</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H27">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I27">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J27">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>296.8652433669886</v>
+        <v>565.613112663322</v>
       </c>
       <c r="R27">
-        <v>2671.787190302898</v>
+        <v>5090.518013969898</v>
       </c>
       <c r="S27">
-        <v>0.01537759831671906</v>
+        <v>0.02071145880089153</v>
       </c>
       <c r="T27">
-        <v>0.01950896455713333</v>
+        <v>0.027418951620577</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H28">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I28">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J28">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>140.3806522923776</v>
+        <v>309.835891328432</v>
       </c>
       <c r="R28">
-        <v>1263.425870631399</v>
+        <v>2788.523021955888</v>
       </c>
       <c r="S28">
-        <v>0.007271707721346676</v>
+        <v>0.01134548184017456</v>
       </c>
       <c r="T28">
-        <v>0.009225334495266798</v>
+        <v>0.01501976372975189</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H29">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I29">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J29">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>47.1936863387845</v>
+        <v>132.6820210179765</v>
       </c>
       <c r="R29">
-        <v>283.162118032707</v>
+        <v>796.0921261078591</v>
       </c>
       <c r="S29">
-        <v>0.002444629567853819</v>
+        <v>0.00485851220632609</v>
       </c>
       <c r="T29">
-        <v>0.002067604689727034</v>
+        <v>0.00428797451091836</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H30">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I30">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J30">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>108.8150996025763</v>
+        <v>210.8764309462661</v>
       </c>
       <c r="R30">
-        <v>979.335896423187</v>
+        <v>1897.887878516394</v>
       </c>
       <c r="S30">
-        <v>0.00563661435573858</v>
+        <v>0.007721812691111355</v>
       </c>
       <c r="T30">
-        <v>0.007150954747515779</v>
+        <v>0.01022255412504435</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H31">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I31">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J31">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>103.3105959700943</v>
+        <v>233.5066281822931</v>
       </c>
       <c r="R31">
-        <v>929.7953637308489</v>
+        <v>2101.559653640637</v>
       </c>
       <c r="S31">
-        <v>0.005351481462331489</v>
+        <v>0.008550478765529286</v>
       </c>
       <c r="T31">
-        <v>0.006789217667577628</v>
+        <v>0.01131958718401462</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H32">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I32">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J32">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N32">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O32">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P32">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q32">
-        <v>145.7820618795493</v>
+        <v>195.7956860937567</v>
       </c>
       <c r="R32">
-        <v>874.6923712772959</v>
+        <v>1174.77411656254</v>
       </c>
       <c r="S32">
-        <v>0.007551500350600079</v>
+        <v>0.007169590299680649</v>
       </c>
       <c r="T32">
-        <v>0.006386864392335493</v>
+        <v>0.006327661463673753</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H33">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I33">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J33">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P33">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q33">
-        <v>214.9293444583191</v>
+        <v>318.9250080408831</v>
       </c>
       <c r="R33">
-        <v>1934.364100124872</v>
+        <v>2870.325072367948</v>
       </c>
       <c r="S33">
-        <v>0.01113332462928298</v>
+        <v>0.01167830451014416</v>
       </c>
       <c r="T33">
-        <v>0.01412441859400074</v>
+        <v>0.01546037241762157</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H34">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I34">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J34">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N34">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O34">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P34">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q34">
-        <v>101.6350760015818</v>
+        <v>174.7031883118542</v>
       </c>
       <c r="R34">
-        <v>914.7156840142359</v>
+        <v>1572.328694806688</v>
       </c>
       <c r="S34">
-        <v>0.005264689648122454</v>
+        <v>0.006397231263022662</v>
       </c>
       <c r="T34">
-        <v>0.006679108247863338</v>
+        <v>0.008469001444693541</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H35">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I35">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J35">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N35">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O35">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P35">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q35">
-        <v>34.16805535172467</v>
+        <v>74.81370865110567</v>
       </c>
       <c r="R35">
-        <v>205.008332110348</v>
+        <v>448.882251906634</v>
       </c>
       <c r="S35">
-        <v>0.001769902816857246</v>
+        <v>0.00273950693464847</v>
       </c>
       <c r="T35">
-        <v>0.001496938191624602</v>
+        <v>0.002417805165326429</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H36">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I36">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J36">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N36">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O36">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P36">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q36">
-        <v>78.78173193834088</v>
+        <v>118.9041872075605</v>
       </c>
       <c r="R36">
-        <v>709.035587445068</v>
+        <v>1070.137684868044</v>
       </c>
       <c r="S36">
-        <v>0.004080888064574148</v>
+        <v>0.004353999437896302</v>
       </c>
       <c r="T36">
-        <v>0.005177264939145044</v>
+        <v>0.005764060421401092</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H37">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I37">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J37">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N37">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O37">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P37">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q37">
-        <v>74.79649155155954</v>
+        <v>131.6643861383847</v>
       </c>
       <c r="R37">
-        <v>673.1684239640359</v>
+        <v>1184.979475245462</v>
       </c>
       <c r="S37">
-        <v>0.003874452898340388</v>
+        <v>0.004821248744056321</v>
       </c>
       <c r="T37">
-        <v>0.004915368623579195</v>
+        <v>0.006382630375527078</v>
       </c>
     </row>
   </sheetData>
